--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_09_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_09_end.xlsx
@@ -44,7 +44,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tomimi plays her hand, but without knowing the Doctor had it all figured out long before. It’s over.
+    <t xml:space="preserve">Tomimi plays her hand, but without knowing the Doctor had it all figured out long before. It's over.
 </t>
   </si>
   <si>
